--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_05_beg.xlsx
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  “At least you have to know who you killed. This isn’t Kazdel anymore. It’d be bad if you killed the wrong person.”
+    <t xml:space="preserve">[name="Ines"]  'At least you have to know who you killed. This isn’t Kazdel anymore. It’d be bad if you killed the wrong person.'
 </t>
   </si>
   <si>
@@ -1024,7 +1024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  As soon as you complete your mission, we’ll annihilate you with all our strength, in “hindsight.”
+    <t xml:space="preserve">[name="Ines"]  As soon as you complete your mission, we’ll annihilate you with all our strength, in 'hindsight.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_05_beg.xlsx
@@ -868,15 +868,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  You... I’ve seen you somewhere before... comrade. We’ve met on the battlefield before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  ...Hey, hey. You shouldn’t have come to Chernobog. Everybody here has the intel on Rhodes Island. You’re all going to die here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  But no matter how good you are, you shouldn’t have been able to get through W’s defensive line. Not unless...
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  You... I've seen you somewhere before... comrade. We've met on the battlefield before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  ...Hey, hey. You shouldn't have come to Chernobog. Everybody here has the intel on Rhodes Island. You're all going to die here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  But no matter how good you are, you shouldn't have been able to get through W's defensive line. Not unless...
 </t>
   </si>
   <si>
@@ -884,7 +884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Some of you fought with us, side-by-side.;That’s the only reason we’re still exchanging words on the battlefield.", values="1;2")]
+    <t xml:space="preserve">[Decision(options="Some of you fought with us, side-by-side.;That's the only reason we're still exchanging words on the battlefield.", values="1;2")]
 </t>
   </si>
   <si>
@@ -896,15 +896,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  You don’t need to argue with me. I know better than you the cruelty that Kazdel has faced, nor do I want to deny her. But for such a tremendous effort, I just want to see some semblance of results.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  Only by the Regent’s hand can a new future come to Kazdel. There’s not enough goodwill to go around for everyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="We could have tried to work together. Or at least so that we don’t have to die together.", values="1")]
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  You don't need to argue with me. I know better than you the cruelty that Kazdel has faced, nor do I want to deny her. But for such a tremendous effort, I just want to see some semblance of results.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  Only by the Regent's hand can a new future come to Kazdel. There's not enough goodwill to go around for everyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="We could have tried to work together. Or at least so that we don't have to die together.", values="1")]
 </t>
   </si>
   <si>
@@ -916,11 +916,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  It’s all the same. I became more convinced of it during the time I spent working with Reunion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  His Royal Highness, the Regent, can open a new home for us, and I’ve chosen to chase this opportunity.
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  It's all the same. I became more convinced of it during the time I spent working with Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  His Royal Highness, the Regent, can open a new home for us, and I've chosen to chase this opportunity.
 </t>
   </si>
   <si>
@@ -928,11 +928,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  ...That’s enough.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  Since W decided to let you through, you must’ve also paid the price.
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  ...That's enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  Since W decided to let you through, you must've also paid the price.
 </t>
   </si>
   <si>
@@ -944,15 +944,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="—Scout.;Don’t mercenaries also use codenames, Garcin?", values="1;2")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  It’s been a while since I heard that name. Originally, I wanted to carve your name onto this knife as a show of respect.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  ...But you’re right.
+    <t xml:space="preserve">[Decision(options="—Scout.;Don't mercenaries also use codenames, Garcin?", values="1;2")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  It's been a while since I heard that name. Originally, I wanted to carve your name onto this knife as a show of respect.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary Leader"]  ...But you're right.
 </t>
   </si>
   <si>
@@ -972,15 +972,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Milim, Tipsy, and Mudflower took one of our teams down with them. One of them fought her way out of the trap, but Hoederer’s swordsmen got her head.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Unexpectedly, Pter died downstairs over there not too long ago. Apparently tried to save some civilian who didn’t have time to evacuate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Slanna’s still breathing and we took her in, but she’s probably looking for some way to kill herself.
+    <t xml:space="preserve">[name="Ines"]  Milim, Tipsy, and Mudflower took one of our teams down with them. One of them fought her way out of the trap, but Hoederer's swordsmen got her head.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Unexpectedly, Pter died downstairs over there not too long ago. Apparently tried to save some civilian who didn't have time to evacuate.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Slanna's still breathing and we took her in, but she's probably looking for some way to kill herself.
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Stop hiding. I know you can hear me. I can see your shadow, and I can tell from your ragged breathing that you’re badly wounded.
+    <t xml:space="preserve">[name="Ines"]  Stop hiding. I know you can hear me. I can see your shadow, and I can tell from your ragged breathing that you're badly wounded.
 </t>
   </si>
   <si>
@@ -1000,11 +1000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  'At least you have to know who you killed. This isn’t Kazdel anymore. It’d be bad if you killed the wrong person.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  Those aren’t dogtags, and the operators we lost... weren’t all soldiers.
+    <t xml:space="preserve">[name="Ines"]  'At least you have to know who you killed. This isn't Kazdel anymore. It'd be bad if you killed the wrong person.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  Those aren't dogtags, and the operators we lost... weren't all soldiers.
 </t>
   </si>
   <si>
@@ -1012,11 +1012,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Hmph. She... Would you believe me if I told you that she doesn’t have the heart to do that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  You killed the leader that the Regent sent. She’s not the only one who wants to take over, so she has her hands full.
+    <t xml:space="preserve">[name="Ines"]  Hmph. She... Would you believe me if I told you that she doesn't have the heart to do that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  You killed the leader that the Regent sent. She's not the only one who wants to take over, so she has her hands full.
 </t>
   </si>
   <si>
@@ -1024,7 +1024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  As soon as you complete your mission, we’ll annihilate you with all our strength, in 'hindsight.'
+    <t xml:space="preserve">[name="Ines"]  As soon as you complete your mission, we'll annihilate you with all our strength, in 'hindsight.'
 </t>
   </si>
   <si>
@@ -1032,11 +1032,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  ...During the firefight, you even took the time to rescue someone. But, that’s not any of our business.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Patriot is over there, so there’s no need to bother with that.
+    <t xml:space="preserve">[name="Ines"]  ...During the firefight, you even took the time to rescue someone. But, that's not any of our business.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Patriot is over there, so there's no need to bother with that.
 </t>
   </si>
   <si>
@@ -1044,15 +1044,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Scout"]  You’ve all... changed. W was not the kind of person to go out of her way to remember the names of the dead.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Yeah, she did change. But she’s only become more of a lunatic.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Your experience on the battlefield is pure, like Faust’s Arts. Who’s to say that this wasn’t just a ruse to trip you up? What if she only wrote down their names so I could toy with you with my Arts?
+    <t xml:space="preserve">[name="Scout"]  You've all... changed. W was not the kind of person to go out of her way to remember the names of the dead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Yeah, she did change. But she's only become more of a lunatic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Your experience on the battlefield is pure, like Faust's Arts. Who's to say that this wasn't just a ruse to trip you up? What if she only wrote down their names so I could toy with you with my Arts?
 </t>
   </si>
   <si>
@@ -1060,11 +1060,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Same with you. Didn’t you also agree to this crazy deal that only W could come up with?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  Trading my life for an opportunity, then letting those who should take that opportunity follow through? There’s nothing crazy about that.
+    <t xml:space="preserve">[name="Ines"]  Same with you. Didn't you also agree to this crazy deal that only W could come up with?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  Trading my life for an opportunity, then letting those who should take that opportunity follow through? There's nothing crazy about that.
 </t>
   </si>
   <si>
@@ -1072,11 +1072,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  ...It seems like everyone’s changed with the passing of time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  You too. You never would’ve given your enemy time to breathe, like you’re doing now.
+    <t xml:space="preserve">[name="Ines"]  ...It seems like everyone's changed with the passing of time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  You too. You never would've given your enemy time to breathe, like you're doing now.
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  ...Tch... He’s gone...
+    <t xml:space="preserve">[name="Ines"]  ...Tch... He's gone...
 </t>
   </si>
   <si>
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  But don’t think you can get away so easily...
+    <t xml:space="preserve">[name="Ines"]  But don't think you can get away so easily...
 </t>
   </si>
   <si>
@@ -1112,11 +1112,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  (No doubt, this is the way. He’s fast.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  (Tricky bastard. If he wasn’t injured, I might not even be able to keep up...)
+    <t xml:space="preserve">[name="Ines"]  (No doubt, this is the way. He's fast.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  (Tricky bastard. If he wasn't injured, I might not even be able to keep up...)
 </t>
   </si>
   <si>
@@ -1124,11 +1124,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  (He... he’s heading towards the middle of the city?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  (That’s where... Tch!)
+    <t xml:space="preserve">[name="Ines"]  (He... he's heading towards the middle of the city?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  (That's where... Tch!)
 </t>
   </si>
   <si>
@@ -1140,11 +1140,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Why can’t you just get out of Chernobog?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  ...You really don’t act like a Sarkaz at times, Ines.
+    <t xml:space="preserve">[name="Ines"]  Why can't you just get out of Chernobog?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  ...You really don't act like a Sarkaz at times, Ines.
 </t>
   </si>
   <si>
@@ -1156,11 +1156,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  You can’t even run anymore. You’ve lost too much blood, your head is spinning, and your limbs are going numb. Your shadow’s the only thing still burning. You shouldn’t even be able to stand.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  I’m well aware of my own injuries. Besides, this place is crawling with Reunion.
+    <t xml:space="preserve">[name="Ines"]  You can't even run anymore. You've lost too much blood, your head is spinning, and your limbs are going numb. Your shadow's the only thing still burning. You shouldn't even be able to stand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  I'm well aware of my own injuries. Besides, this place is crawling with Reunion.
 </t>
   </si>
   <si>
@@ -1168,11 +1168,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  ...For Her Majesty’s sake.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  Use those eyes of yours to see the truth, and don’t die in vain before that.
+    <t xml:space="preserve">[name="Ines"]  ...For Her Majesty's sake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  Use those eyes of yours to see the truth, and don't die in vain before that.
 </t>
   </si>
   <si>
@@ -1212,7 +1212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Scout"]  (Now’s my chance—!)
+    <t xml:space="preserve">[name="Scout"]  (Now's my chance—!)
 </t>
   </si>
   <si>
@@ -1220,7 +1220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Scout"]  Nngh... You? So... you’re alive...
+    <t xml:space="preserve">[name="Scout"]  Nngh... You? So... you're alive...
 </t>
   </si>
   <si>
@@ -1228,7 +1228,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’ve been following you this whole time. I figured Ines alone wouldn’t be enough to handle an elite like you.
+    <t xml:space="preserve">[name="Hoederer"]  I've been following you this whole time. I figured Ines alone wouldn't be enough to handle an elite like you.
 </t>
   </si>
   <si>
@@ -1236,11 +1236,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  But now, we can’t give you any more chances. You’re too close to the core city. W doesn’t want anyone poking around over there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  Heh... Sounds like... she’s the captain now...
+    <t xml:space="preserve">[name="Hoederer"]  But now, we can't give you any more chances. You're too close to the core city. W doesn't want anyone poking around over there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  Heh... Sounds like... she's the captain now...
 </t>
   </si>
   <si>
@@ -1248,7 +1248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...I’m sorry. Sleep now, old friend.
+    <t xml:space="preserve">[name="Hoederer"]  ...I'm sorry. Sleep now, old friend.
 </t>
   </si>
   <si>
@@ -1260,7 +1260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’ve known that all along.
+    <t xml:space="preserve">[name="Hoederer"]  I've known that all along.
 </t>
   </si>
   <si>
@@ -1280,7 +1280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Tch! She’s coming!
+    <t xml:space="preserve">[name="Ines"]  Tch! She's coming!
 </t>
   </si>
   <si>
